--- a/grading/codes/grades_norm.xlsx
+++ b/grading/codes/grades_norm.xlsx
@@ -479,7 +479,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B-</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B-</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A-</t>
         </is>
       </c>
     </row>
